--- a/ssRNA_aas_unique.xlsx
+++ b/ssRNA_aas_unique.xlsx
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -766,10 +766,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -802,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -967,19 +967,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1317,10 +1317,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1374,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1457,10 +1457,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1922,10 +1922,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
